--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il16-Cd4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il16-Cd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.06846584426965</v>
+        <v>3.293291666666667</v>
       </c>
       <c r="H2">
-        <v>3.06846584426965</v>
+        <v>9.879875</v>
       </c>
       <c r="I2">
-        <v>0.1729775162446332</v>
+        <v>0.161585160668464</v>
       </c>
       <c r="J2">
-        <v>0.1729775162446332</v>
+        <v>0.1670404328173815</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.06139526625746</v>
+        <v>1.148853</v>
       </c>
       <c r="N2">
-        <v>5.06139526625746</v>
+        <v>3.446559</v>
       </c>
       <c r="O2">
-        <v>0.6204948952316656</v>
+        <v>0.04807783529489357</v>
       </c>
       <c r="P2">
-        <v>0.6204948952316656</v>
+        <v>0.04901969401652802</v>
       </c>
       <c r="Q2">
-        <v>15.53071849885911</v>
+        <v>3.783508011125</v>
       </c>
       <c r="R2">
-        <v>15.53071849885911</v>
+        <v>34.051572100125</v>
       </c>
       <c r="S2">
-        <v>0.1073316658196474</v>
+        <v>0.007768664740717328</v>
       </c>
       <c r="T2">
-        <v>0.1073316658196474</v>
+        <v>0.008188270905096448</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.06846584426965</v>
+        <v>3.293291666666667</v>
       </c>
       <c r="H3">
-        <v>3.06846584426965</v>
+        <v>9.879875</v>
       </c>
       <c r="I3">
-        <v>0.1729775162446332</v>
+        <v>0.161585160668464</v>
       </c>
       <c r="J3">
-        <v>0.1729775162446332</v>
+        <v>0.1670404328173815</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.19643625586457</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N3">
-        <v>2.19643625586457</v>
+        <v>17.091976</v>
       </c>
       <c r="O3">
-        <v>0.2692691269444105</v>
+        <v>0.2384248193610712</v>
       </c>
       <c r="P3">
-        <v>0.2692691269444105</v>
+        <v>0.2430956306443153</v>
       </c>
       <c r="Q3">
-        <v>6.739689630235946</v>
+        <v>18.76295404255556</v>
       </c>
       <c r="R3">
-        <v>6.739689630235946</v>
+        <v>168.866586383</v>
       </c>
       <c r="S3">
-        <v>0.04657750478020495</v>
+        <v>0.0385259127438082</v>
       </c>
       <c r="T3">
-        <v>0.04657750478020495</v>
+        <v>0.04060679935884075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.06846584426965</v>
+        <v>3.293291666666667</v>
       </c>
       <c r="H4">
-        <v>3.06846584426965</v>
+        <v>9.879875</v>
       </c>
       <c r="I4">
-        <v>0.1729775162446332</v>
+        <v>0.161585160668464</v>
       </c>
       <c r="J4">
-        <v>0.1729775162446332</v>
+        <v>0.1670404328173815</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.899198141059578</v>
+        <v>6.853141</v>
       </c>
       <c r="N4">
-        <v>0.899198141059578</v>
+        <v>20.559423</v>
       </c>
       <c r="O4">
-        <v>0.110235977823924</v>
+        <v>0.286794032178775</v>
       </c>
       <c r="P4">
-        <v>0.110235977823924</v>
+        <v>0.2924124103537379</v>
       </c>
       <c r="Q4">
-        <v>2.759158783072078</v>
+        <v>22.56939214579167</v>
       </c>
       <c r="R4">
-        <v>2.759158783072078</v>
+        <v>203.124529312125</v>
       </c>
       <c r="S4">
-        <v>0.01906834564478084</v>
+        <v>0.04634165976836401</v>
       </c>
       <c r="T4">
-        <v>0.01906834564478084</v>
+        <v>0.04884469558666216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.71363574297418</v>
+        <v>3.293291666666667</v>
       </c>
       <c r="H5">
-        <v>2.71363574297418</v>
+        <v>9.879875</v>
       </c>
       <c r="I5">
-        <v>0.1529748071626519</v>
+        <v>0.161585160668464</v>
       </c>
       <c r="J5">
-        <v>0.1529748071626519</v>
+        <v>0.1670404328173815</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.06139526625746</v>
+        <v>8.818982666666665</v>
       </c>
       <c r="N5">
-        <v>5.06139526625746</v>
+        <v>26.456948</v>
       </c>
       <c r="O5">
-        <v>0.6204948952316656</v>
+        <v>0.3690616607316352</v>
       </c>
       <c r="P5">
-        <v>0.6204948952316656</v>
+        <v>0.3762916855829809</v>
       </c>
       <c r="Q5">
-        <v>13.73478310383656</v>
+        <v>29.04348212461111</v>
       </c>
       <c r="R5">
-        <v>13.73478310383656</v>
+        <v>261.3913391215</v>
       </c>
       <c r="S5">
-        <v>0.09492008694347391</v>
+        <v>0.05963488774589143</v>
       </c>
       <c r="T5">
-        <v>0.09492008694347391</v>
+        <v>0.06285592602536318</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.71363574297418</v>
+        <v>3.293291666666667</v>
       </c>
       <c r="H6">
-        <v>2.71363574297418</v>
+        <v>9.879875</v>
       </c>
       <c r="I6">
-        <v>0.1529748071626519</v>
+        <v>0.161585160668464</v>
       </c>
       <c r="J6">
-        <v>0.1529748071626519</v>
+        <v>0.1670404328173815</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.19643625586457</v>
+        <v>1.377387</v>
       </c>
       <c r="N6">
-        <v>2.19643625586457</v>
+        <v>2.754774</v>
       </c>
       <c r="O6">
-        <v>0.2692691269444105</v>
+        <v>0.05764165243362517</v>
       </c>
       <c r="P6">
-        <v>0.2692691269444105</v>
+        <v>0.0391805794024379</v>
       </c>
       <c r="Q6">
-        <v>5.960327931078478</v>
+        <v>4.536137128875</v>
       </c>
       <c r="R6">
-        <v>5.960327931078478</v>
+        <v>27.21682277325</v>
       </c>
       <c r="S6">
-        <v>0.04119139276917681</v>
+        <v>0.009314035669683083</v>
       </c>
       <c r="T6">
-        <v>0.04119139276917681</v>
+        <v>0.00654474094141901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.71363574297418</v>
+        <v>2.839091333333334</v>
       </c>
       <c r="H7">
-        <v>2.71363574297418</v>
+        <v>8.517274</v>
       </c>
       <c r="I7">
-        <v>0.1529748071626519</v>
+        <v>0.1392998482012507</v>
       </c>
       <c r="J7">
-        <v>0.1529748071626519</v>
+        <v>0.1440027465311282</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.899198141059578</v>
+        <v>1.148853</v>
       </c>
       <c r="N7">
-        <v>0.899198141059578</v>
+        <v>3.446559</v>
       </c>
       <c r="O7">
-        <v>0.110235977823924</v>
+        <v>0.04807783529489357</v>
       </c>
       <c r="P7">
-        <v>0.110235977823924</v>
+        <v>0.04901969401652802</v>
       </c>
       <c r="Q7">
-        <v>2.440096215595209</v>
+        <v>3.261698595574</v>
       </c>
       <c r="R7">
-        <v>2.440096215595209</v>
+        <v>29.355287360166</v>
       </c>
       <c r="S7">
-        <v>0.01686332745000114</v>
+        <v>0.006697235158423407</v>
       </c>
       <c r="T7">
-        <v>0.01686332745000114</v>
+        <v>0.007058970572495548</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.82161747845484</v>
+        <v>2.839091333333334</v>
       </c>
       <c r="H8">
-        <v>4.82161747845484</v>
+        <v>8.517274</v>
       </c>
       <c r="I8">
-        <v>0.2718072998147854</v>
+        <v>0.1392998482012507</v>
       </c>
       <c r="J8">
-        <v>0.2718072998147854</v>
+        <v>0.1440027465311282</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.06139526625746</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N8">
-        <v>5.06139526625746</v>
+        <v>17.091976</v>
       </c>
       <c r="O8">
-        <v>0.6204948952316656</v>
+        <v>0.2384248193610712</v>
       </c>
       <c r="P8">
-        <v>0.6204948952316656</v>
+        <v>0.2430956306443153</v>
       </c>
       <c r="Q8">
-        <v>24.40411188115556</v>
+        <v>16.17522697704712</v>
       </c>
       <c r="R8">
-        <v>24.40411188115556</v>
+        <v>145.577042793424</v>
       </c>
       <c r="S8">
-        <v>0.1686550420217771</v>
+        <v>0.03321254114440783</v>
       </c>
       <c r="T8">
-        <v>0.1686550420217771</v>
+        <v>0.0350064384824981</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.82161747845484</v>
+        <v>2.839091333333334</v>
       </c>
       <c r="H9">
-        <v>4.82161747845484</v>
+        <v>8.517274</v>
       </c>
       <c r="I9">
-        <v>0.2718072998147854</v>
+        <v>0.1392998482012507</v>
       </c>
       <c r="J9">
-        <v>0.2718072998147854</v>
+        <v>0.1440027465311282</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.19643625586457</v>
+        <v>6.853141</v>
       </c>
       <c r="N9">
-        <v>2.19643625586457</v>
+        <v>20.559423</v>
       </c>
       <c r="O9">
-        <v>0.2692691269444105</v>
+        <v>0.286794032178775</v>
       </c>
       <c r="P9">
-        <v>0.2692691269444105</v>
+        <v>0.2924124103537379</v>
       </c>
       <c r="Q9">
-        <v>10.59037544158852</v>
+        <v>19.45669321921133</v>
       </c>
       <c r="R9">
-        <v>10.59037544158852</v>
+        <v>175.110238972902</v>
       </c>
       <c r="S9">
-        <v>0.07318931431824487</v>
+        <v>0.03995036514752796</v>
       </c>
       <c r="T9">
-        <v>0.07318931431824487</v>
+        <v>0.04210819021072557</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.82161747845484</v>
+        <v>2.839091333333334</v>
       </c>
       <c r="H10">
-        <v>4.82161747845484</v>
+        <v>8.517274</v>
       </c>
       <c r="I10">
-        <v>0.2718072998147854</v>
+        <v>0.1392998482012507</v>
       </c>
       <c r="J10">
-        <v>0.2718072998147854</v>
+        <v>0.1440027465311282</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.899198141059578</v>
+        <v>8.818982666666665</v>
       </c>
       <c r="N10">
-        <v>0.899198141059578</v>
+        <v>26.456948</v>
       </c>
       <c r="O10">
-        <v>0.110235977823924</v>
+        <v>0.3690616607316352</v>
       </c>
       <c r="P10">
-        <v>0.110235977823924</v>
+        <v>0.3762916855829809</v>
       </c>
       <c r="Q10">
-        <v>4.335589473526962</v>
+        <v>25.03789725775022</v>
       </c>
       <c r="R10">
-        <v>4.335589473526962</v>
+        <v>225.341075319752</v>
       </c>
       <c r="S10">
-        <v>0.02996294347476334</v>
+        <v>0.05141023331681826</v>
       </c>
       <c r="T10">
-        <v>0.02996294347476334</v>
+        <v>0.05418703622077699</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.19328185046771</v>
+        <v>2.839091333333334</v>
       </c>
       <c r="H11">
-        <v>5.19328185046771</v>
+        <v>8.517274</v>
       </c>
       <c r="I11">
-        <v>0.2927590011568317</v>
+        <v>0.1392998482012507</v>
       </c>
       <c r="J11">
-        <v>0.2927590011568317</v>
+        <v>0.1440027465311282</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.06139526625746</v>
+        <v>1.377387</v>
       </c>
       <c r="N11">
-        <v>5.06139526625746</v>
+        <v>2.754774</v>
       </c>
       <c r="O11">
-        <v>0.6204948952316656</v>
+        <v>0.05764165243362517</v>
       </c>
       <c r="P11">
-        <v>0.6204948952316656</v>
+        <v>0.0391805794024379</v>
       </c>
       <c r="Q11">
-        <v>26.28525217429805</v>
+        <v>3.910527494346</v>
       </c>
       <c r="R11">
-        <v>26.28525217429805</v>
+        <v>23.463164966076</v>
       </c>
       <c r="S11">
-        <v>0.1816554657509353</v>
+        <v>0.008029473434073238</v>
       </c>
       <c r="T11">
-        <v>0.1816554657509353</v>
+        <v>0.005642111044632008</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.19328185046771</v>
+        <v>6.486612666666666</v>
       </c>
       <c r="H12">
-        <v>5.19328185046771</v>
+        <v>19.459838</v>
       </c>
       <c r="I12">
-        <v>0.2927590011568317</v>
+        <v>0.3182652664949994</v>
       </c>
       <c r="J12">
-        <v>0.2927590011568317</v>
+        <v>0.3290102113717155</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.19643625586457</v>
+        <v>1.148853</v>
       </c>
       <c r="N12">
-        <v>2.19643625586457</v>
+        <v>3.446559</v>
       </c>
       <c r="O12">
-        <v>0.2692691269444105</v>
+        <v>0.04807783529489357</v>
       </c>
       <c r="P12">
-        <v>0.2692691269444105</v>
+        <v>0.04901969401652802</v>
       </c>
       <c r="Q12">
-        <v>11.40671254329072</v>
+        <v>7.452164421937998</v>
       </c>
       <c r="R12">
-        <v>11.40671254329072</v>
+        <v>67.06947979744199</v>
       </c>
       <c r="S12">
-        <v>0.07883096064661772</v>
+        <v>0.01530150506263199</v>
       </c>
       <c r="T12">
-        <v>0.07883096064661772</v>
+        <v>0.0161279798897547</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.19328185046771</v>
+        <v>6.486612666666666</v>
       </c>
       <c r="H13">
-        <v>5.19328185046771</v>
+        <v>19.459838</v>
       </c>
       <c r="I13">
-        <v>0.2927590011568317</v>
+        <v>0.3182652664949994</v>
       </c>
       <c r="J13">
-        <v>0.2927590011568317</v>
+        <v>0.3290102113717155</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.899198141059578</v>
+        <v>5.697325333333334</v>
       </c>
       <c r="N13">
-        <v>0.899198141059578</v>
+        <v>17.091976</v>
       </c>
       <c r="O13">
-        <v>0.110235977823924</v>
+        <v>0.2384248193610712</v>
       </c>
       <c r="P13">
-        <v>0.110235977823924</v>
+        <v>0.2430956306443153</v>
       </c>
       <c r="Q13">
-        <v>4.66978938593901</v>
+        <v>36.95634267332089</v>
       </c>
       <c r="R13">
-        <v>4.66978938593901</v>
+        <v>332.607084059888</v>
       </c>
       <c r="S13">
-        <v>0.03227257475927864</v>
+        <v>0.07588233867297339</v>
       </c>
       <c r="T13">
-        <v>0.03227257475927864</v>
+        <v>0.07998094482182666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.94210131449623</v>
+        <v>6.486612666666666</v>
       </c>
       <c r="H14">
-        <v>1.94210131449623</v>
+        <v>19.459838</v>
       </c>
       <c r="I14">
-        <v>0.109481375621098</v>
+        <v>0.3182652664949994</v>
       </c>
       <c r="J14">
-        <v>0.109481375621098</v>
+        <v>0.3290102113717155</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.06139526625746</v>
+        <v>6.853141</v>
       </c>
       <c r="N14">
-        <v>5.06139526625746</v>
+        <v>20.559423</v>
       </c>
       <c r="O14">
-        <v>0.6204948952316656</v>
+        <v>0.286794032178775</v>
       </c>
       <c r="P14">
-        <v>0.6204948952316656</v>
+        <v>0.2924124103537379</v>
       </c>
       <c r="Q14">
-        <v>9.829742399783608</v>
+        <v>44.45367121705266</v>
       </c>
       <c r="R14">
-        <v>9.829742399783608</v>
+        <v>400.0830409534739</v>
       </c>
       <c r="S14">
-        <v>0.06793263469583181</v>
+        <v>0.09127657908055326</v>
       </c>
       <c r="T14">
-        <v>0.06793263469583181</v>
+        <v>0.09620666893819611</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.94210131449623</v>
+        <v>6.486612666666666</v>
       </c>
       <c r="H15">
-        <v>1.94210131449623</v>
+        <v>19.459838</v>
       </c>
       <c r="I15">
-        <v>0.109481375621098</v>
+        <v>0.3182652664949994</v>
       </c>
       <c r="J15">
-        <v>0.109481375621098</v>
+        <v>0.3290102113717155</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>2.19643625586457</v>
+        <v>8.818982666666665</v>
       </c>
       <c r="N15">
-        <v>2.19643625586457</v>
+        <v>26.456948</v>
       </c>
       <c r="O15">
-        <v>0.2692691269444105</v>
+        <v>0.3690616607316352</v>
       </c>
       <c r="P15">
-        <v>0.2692691269444105</v>
+        <v>0.3762916855829809</v>
       </c>
       <c r="Q15">
-        <v>4.265701739721758</v>
+        <v>57.20532467271376</v>
       </c>
       <c r="R15">
-        <v>4.265701739721758</v>
+        <v>514.8479220544239</v>
       </c>
       <c r="S15">
-        <v>0.02947995443016611</v>
+        <v>0.1174595078058409</v>
       </c>
       <c r="T15">
-        <v>0.02947995443016611</v>
+        <v>0.1238038070110756</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.94210131449623</v>
+        <v>6.486612666666666</v>
       </c>
       <c r="H16">
-        <v>1.94210131449623</v>
+        <v>19.459838</v>
       </c>
       <c r="I16">
-        <v>0.109481375621098</v>
+        <v>0.3182652664949994</v>
       </c>
       <c r="J16">
-        <v>0.109481375621098</v>
+        <v>0.3290102113717155</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.899198141059578</v>
+        <v>1.377387</v>
       </c>
       <c r="N16">
-        <v>0.899198141059578</v>
+        <v>2.754774</v>
       </c>
       <c r="O16">
-        <v>0.110235977823924</v>
+        <v>0.05764165243362517</v>
       </c>
       <c r="P16">
-        <v>0.110235977823924</v>
+        <v>0.0391805794024379</v>
       </c>
       <c r="Q16">
-        <v>1.746333891744373</v>
+        <v>8.934575961101999</v>
       </c>
       <c r="R16">
-        <v>1.746333891744373</v>
+        <v>53.60745576661199</v>
       </c>
       <c r="S16">
-        <v>0.01206878649510005</v>
+        <v>0.01834533587299984</v>
       </c>
       <c r="T16">
-        <v>0.01206878649510005</v>
+        <v>0.01289081071086237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.765308999999999</v>
+      </c>
+      <c r="H17">
+        <v>17.295927</v>
+      </c>
+      <c r="I17">
+        <v>0.2828745447897899</v>
+      </c>
+      <c r="J17">
+        <v>0.292424664487945</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>1.148853</v>
+      </c>
+      <c r="N17">
+        <v>3.446559</v>
+      </c>
+      <c r="O17">
+        <v>0.04807783529489357</v>
+      </c>
+      <c r="P17">
+        <v>0.04901969401652802</v>
+      </c>
+      <c r="Q17">
+        <v>6.623492540576999</v>
+      </c>
+      <c r="R17">
+        <v>59.61143286519299</v>
+      </c>
+      <c r="S17">
+        <v>0.01359999577352151</v>
+      </c>
+      <c r="T17">
+        <v>0.01433456757608493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.765308999999999</v>
+      </c>
+      <c r="H18">
+        <v>17.295927</v>
+      </c>
+      <c r="I18">
+        <v>0.2828745447897899</v>
+      </c>
+      <c r="J18">
+        <v>0.292424664487945</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.697325333333334</v>
+      </c>
+      <c r="N18">
+        <v>17.091976</v>
+      </c>
+      <c r="O18">
+        <v>0.2384248193610712</v>
+      </c>
+      <c r="P18">
+        <v>0.2430956306443153</v>
+      </c>
+      <c r="Q18">
+        <v>32.84684102019467</v>
+      </c>
+      <c r="R18">
+        <v>295.621569181752</v>
+      </c>
+      <c r="S18">
+        <v>0.06744431224335087</v>
+      </c>
+      <c r="T18">
+        <v>0.0710871582296493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.765308999999999</v>
+      </c>
+      <c r="H19">
+        <v>17.295927</v>
+      </c>
+      <c r="I19">
+        <v>0.2828745447897899</v>
+      </c>
+      <c r="J19">
+        <v>0.292424664487945</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>6.853141</v>
+      </c>
+      <c r="N19">
+        <v>20.559423</v>
+      </c>
+      <c r="O19">
+        <v>0.286794032178775</v>
+      </c>
+      <c r="P19">
+        <v>0.2924124103537379</v>
+      </c>
+      <c r="Q19">
+        <v>39.510475485569</v>
+      </c>
+      <c r="R19">
+        <v>355.5942793701209</v>
+      </c>
+      <c r="S19">
+        <v>0.08112673130099933</v>
+      </c>
+      <c r="T19">
+        <v>0.08550860098980309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.765308999999999</v>
+      </c>
+      <c r="H20">
+        <v>17.295927</v>
+      </c>
+      <c r="I20">
+        <v>0.2828745447897899</v>
+      </c>
+      <c r="J20">
+        <v>0.292424664487945</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>8.818982666666665</v>
+      </c>
+      <c r="N20">
+        <v>26.456948</v>
+      </c>
+      <c r="O20">
+        <v>0.3690616607316352</v>
+      </c>
+      <c r="P20">
+        <v>0.3762916855829809</v>
+      </c>
+      <c r="Q20">
+        <v>50.84416013897732</v>
+      </c>
+      <c r="R20">
+        <v>457.5974412507959</v>
+      </c>
+      <c r="S20">
+        <v>0.1043981492788252</v>
+      </c>
+      <c r="T20">
+        <v>0.1100369699062065</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.765308999999999</v>
+      </c>
+      <c r="H21">
+        <v>17.295927</v>
+      </c>
+      <c r="I21">
+        <v>0.2828745447897899</v>
+      </c>
+      <c r="J21">
+        <v>0.292424664487945</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.377387</v>
+      </c>
+      <c r="N21">
+        <v>2.754774</v>
+      </c>
+      <c r="O21">
+        <v>0.05764165243362517</v>
+      </c>
+      <c r="P21">
+        <v>0.0391805794024379</v>
+      </c>
+      <c r="Q21">
+        <v>7.941061667582999</v>
+      </c>
+      <c r="R21">
+        <v>47.64637000549799</v>
+      </c>
+      <c r="S21">
+        <v>0.016305356193093</v>
+      </c>
+      <c r="T21">
+        <v>0.01145736778620119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.996847</v>
+      </c>
+      <c r="H22">
+        <v>3.993694</v>
+      </c>
+      <c r="I22">
+        <v>0.09797517984549615</v>
+      </c>
+      <c r="J22">
+        <v>0.06752194479182982</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>1.148853</v>
+      </c>
+      <c r="N22">
+        <v>3.446559</v>
+      </c>
+      <c r="O22">
+        <v>0.04807783529489357</v>
+      </c>
+      <c r="P22">
+        <v>0.04901969401652802</v>
+      </c>
+      <c r="Q22">
+        <v>2.294083666491</v>
+      </c>
+      <c r="R22">
+        <v>13.764501998946</v>
+      </c>
+      <c r="S22">
+        <v>0.00471043455959934</v>
+      </c>
+      <c r="T22">
+        <v>0.003309905073096395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.996847</v>
+      </c>
+      <c r="H23">
+        <v>3.993694</v>
+      </c>
+      <c r="I23">
+        <v>0.09797517984549615</v>
+      </c>
+      <c r="J23">
+        <v>0.06752194479182982</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.697325333333334</v>
+      </c>
+      <c r="N23">
+        <v>17.091976</v>
+      </c>
+      <c r="O23">
+        <v>0.2384248193610712</v>
+      </c>
+      <c r="P23">
+        <v>0.2430956306443153</v>
+      </c>
+      <c r="Q23">
+        <v>11.37668699989067</v>
+      </c>
+      <c r="R23">
+        <v>68.26012199934401</v>
+      </c>
+      <c r="S23">
+        <v>0.02335971455653088</v>
+      </c>
+      <c r="T23">
+        <v>0.01641428975150051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.996847</v>
+      </c>
+      <c r="H24">
+        <v>3.993694</v>
+      </c>
+      <c r="I24">
+        <v>0.09797517984549615</v>
+      </c>
+      <c r="J24">
+        <v>0.06752194479182982</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.853141</v>
+      </c>
+      <c r="N24">
+        <v>20.559423</v>
+      </c>
+      <c r="O24">
+        <v>0.286794032178775</v>
+      </c>
+      <c r="P24">
+        <v>0.2924124103537379</v>
+      </c>
+      <c r="Q24">
+        <v>13.684674046427</v>
+      </c>
+      <c r="R24">
+        <v>82.10804427856199</v>
+      </c>
+      <c r="S24">
+        <v>0.02809869688133049</v>
+      </c>
+      <c r="T24">
+        <v>0.01974425462835098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.996847</v>
+      </c>
+      <c r="H25">
+        <v>3.993694</v>
+      </c>
+      <c r="I25">
+        <v>0.09797517984549615</v>
+      </c>
+      <c r="J25">
+        <v>0.06752194479182982</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>8.818982666666665</v>
+      </c>
+      <c r="N25">
+        <v>26.456948</v>
+      </c>
+      <c r="O25">
+        <v>0.3690616607316352</v>
+      </c>
+      <c r="P25">
+        <v>0.3762916855829809</v>
+      </c>
+      <c r="Q25">
+        <v>17.61015908098533</v>
+      </c>
+      <c r="R25">
+        <v>105.660954485912</v>
+      </c>
+      <c r="S25">
+        <v>0.03615888258425944</v>
+      </c>
+      <c r="T25">
+        <v>0.02540794641955862</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.996847</v>
+      </c>
+      <c r="H26">
+        <v>3.993694</v>
+      </c>
+      <c r="I26">
+        <v>0.09797517984549615</v>
+      </c>
+      <c r="J26">
+        <v>0.06752194479182982</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.377387</v>
+      </c>
+      <c r="N26">
+        <v>2.754774</v>
+      </c>
+      <c r="O26">
+        <v>0.05764165243362517</v>
+      </c>
+      <c r="P26">
+        <v>0.0391805794024379</v>
+      </c>
+      <c r="Q26">
+        <v>2.750431098789</v>
+      </c>
+      <c r="R26">
+        <v>11.001724395156</v>
+      </c>
+      <c r="S26">
+        <v>0.005647451263776007</v>
+      </c>
+      <c r="T26">
+        <v>0.002645548919323316</v>
       </c>
     </row>
   </sheetData>
